--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.186560533391</v>
+        <v>848.9921397190409</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.128000020980835</v>
+        <v>0.746999979019165</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.233283397482104e-12</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.84839347967299</v>
+        <v>34.30000008383182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.08068907713804</v>
+        <v>12.29065144902804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.668856131193153</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2268.689999999663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.06</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,34 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -929,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.00204462349268</v>
+        <v>4.685690984262514</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.41539744121287</v>
+        <v>31.60181147454923</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.01720891576281</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152274</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.48909622152229</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1037,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1051,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1065,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1079,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1093,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1107,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1121,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1135,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1149,141 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7199999999959</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1397,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2399999999648</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1408,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4649999999627</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1419,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.444999999926</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3099999999907</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1441,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>168.7649999999955</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1452,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>162.464999999964</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -1463,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>169.1149999999623</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -1474,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>169.9699999999254</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1485,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>165.5749999999909</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -1496,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>253.8349999999949</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1507,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>251.0049999999635</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1518,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>244.0249999999606</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -1529,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>252.9399999999245</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -1540,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>248.3199999999891</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1551,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.615</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1562,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.809999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1573,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4649999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1584,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1595,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1606,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1617,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000019</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1628,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000044</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1639,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1650,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000008</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1661,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.615</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1672,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.809999999999</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1683,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4649999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1694,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1705,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1716,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>253.8349999999949</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -1727,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>251.0049999999635</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
@@ -1738,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>244.0249999999606</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40">
@@ -1749,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>252.9399999999245</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -1760,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>248.3199999999891</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.61500000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1818,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.80999999999895</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1829,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.4649999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1840,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>77.19999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1851,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.13000000000011</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1862,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8349999999949</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1873,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>151.0049999999635</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1884,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>144.0249999999606</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1895,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>152.9399999999245</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>148.3199999999891</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1964,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1975,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1986,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1997,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2231,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2269,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2280,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2291,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2302,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2313,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2324,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2335,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2346,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2357,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2368,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2379,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2390,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2401,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2412,89 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>
